--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1921.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1921.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.410620831162812</v>
+        <v>1.105664968490601</v>
       </c>
       <c r="B1">
-        <v>2.736447575350579</v>
+        <v>1.236000537872314</v>
       </c>
       <c r="C1">
-        <v>1.817808741876473</v>
+        <v>0.9818459153175354</v>
       </c>
       <c r="D1">
-        <v>1.586803548323494</v>
+        <v>5.266625881195068</v>
       </c>
       <c r="E1">
-        <v>1.557221986104214</v>
+        <v>1.901823997497559</v>
       </c>
     </row>
   </sheetData>
